--- a/Code/Results/Cases/Case_2_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9920119484772377</v>
+        <v>1.022585203763145</v>
       </c>
       <c r="D2">
-        <v>1.011222213914936</v>
+        <v>1.027219167439481</v>
       </c>
       <c r="E2">
-        <v>1.012725476373896</v>
+        <v>1.048508784654992</v>
       </c>
       <c r="F2">
-        <v>1.017718853026077</v>
+        <v>1.052778160187862</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040128471788382</v>
+        <v>1.030627091185019</v>
       </c>
       <c r="J2">
-        <v>1.014434234385141</v>
+        <v>1.027770213808853</v>
       </c>
       <c r="K2">
-        <v>1.022527388445876</v>
+        <v>1.030039534561403</v>
       </c>
       <c r="L2">
-        <v>1.024010326799232</v>
+        <v>1.051268432637377</v>
       </c>
       <c r="M2">
-        <v>1.028936734171807</v>
+        <v>1.05552595220033</v>
       </c>
       <c r="N2">
-        <v>1.015874847355195</v>
+        <v>1.029229765399353</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9962938387866367</v>
+        <v>1.023485738831831</v>
       </c>
       <c r="D3">
-        <v>1.014159888105054</v>
+        <v>1.02785232462888</v>
       </c>
       <c r="E3">
-        <v>1.017378712033458</v>
+        <v>1.049580120962158</v>
       </c>
       <c r="F3">
-        <v>1.022503365569041</v>
+        <v>1.053870428705247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041042651981338</v>
+        <v>1.030758492797049</v>
       </c>
       <c r="J3">
-        <v>1.016886049935629</v>
+        <v>1.028309115442415</v>
       </c>
       <c r="K3">
-        <v>1.024614740459241</v>
+        <v>1.030480842930338</v>
       </c>
       <c r="L3">
-        <v>1.02779395493869</v>
+        <v>1.052151157720566</v>
       </c>
       <c r="M3">
-        <v>1.032856185882336</v>
+        <v>1.056430417696365</v>
       </c>
       <c r="N3">
-        <v>1.018330144764998</v>
+        <v>1.029769432335048</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9990082796694352</v>
+        <v>1.024068792292468</v>
       </c>
       <c r="D4">
-        <v>1.016024388420367</v>
+        <v>1.028262134072192</v>
       </c>
       <c r="E4">
-        <v>1.020335516186978</v>
+        <v>1.050274417906803</v>
       </c>
       <c r="F4">
-        <v>1.025541875542481</v>
+        <v>1.05457810382439</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041611560297982</v>
+        <v>1.030842232359159</v>
       </c>
       <c r="J4">
-        <v>1.01843738781972</v>
+        <v>1.028657557496632</v>
       </c>
       <c r="K4">
-        <v>1.02593318492523</v>
+        <v>1.030765825835823</v>
       </c>
       <c r="L4">
-        <v>1.030194551591652</v>
+        <v>1.052722812070963</v>
       </c>
       <c r="M4">
-        <v>1.035341504336716</v>
+        <v>1.057015976797008</v>
       </c>
       <c r="N4">
-        <v>1.019883685726825</v>
+        <v>1.030118369216949</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000136433824703</v>
+        <v>1.024313990070817</v>
       </c>
       <c r="D5">
-        <v>1.016799769255004</v>
+        <v>1.028434443945593</v>
       </c>
       <c r="E5">
-        <v>1.021566082372654</v>
+        <v>1.050566556061499</v>
       </c>
       <c r="F5">
-        <v>1.02680603286707</v>
+        <v>1.054875826267003</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04184541672681</v>
+        <v>1.030877128080782</v>
       </c>
       <c r="J5">
-        <v>1.019081403856845</v>
+        <v>1.028803978599067</v>
       </c>
       <c r="K5">
-        <v>1.026479952170011</v>
+        <v>1.030885494486349</v>
       </c>
       <c r="L5">
-        <v>1.031192754399906</v>
+        <v>1.052963248037031</v>
       </c>
       <c r="M5">
-        <v>1.036374581203495</v>
+        <v>1.057262219255952</v>
       </c>
       <c r="N5">
-        <v>1.020528616340593</v>
+        <v>1.030264998254143</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000325106810537</v>
+        <v>1.024355164642835</v>
       </c>
       <c r="D6">
-        <v>1.016929470410252</v>
+        <v>1.028463377014311</v>
       </c>
       <c r="E6">
-        <v>1.02177198213816</v>
+        <v>1.050615622320971</v>
       </c>
       <c r="F6">
-        <v>1.027017528774075</v>
+        <v>1.05492582781144</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041884373650577</v>
+        <v>1.030882969127225</v>
       </c>
       <c r="J6">
-        <v>1.019189065105552</v>
+        <v>1.028828559571173</v>
       </c>
       <c r="K6">
-        <v>1.026571322359338</v>
+        <v>1.030905579249554</v>
       </c>
       <c r="L6">
-        <v>1.031359722871429</v>
+        <v>1.053003624873039</v>
       </c>
       <c r="M6">
-        <v>1.036547362028698</v>
+        <v>1.057303568733977</v>
       </c>
       <c r="N6">
-        <v>1.020636430480622</v>
+        <v>1.03028961413405</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.999023404590307</v>
+        <v>1.024072068315796</v>
       </c>
       <c r="D7">
-        <v>1.016034781993719</v>
+        <v>1.028264436384827</v>
       </c>
       <c r="E7">
-        <v>1.020352007457068</v>
+        <v>1.050278320467079</v>
       </c>
       <c r="F7">
-        <v>1.025558818614892</v>
+        <v>1.054582081159049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041614705839149</v>
+        <v>1.030842699849889</v>
       </c>
       <c r="J7">
-        <v>1.018446024960967</v>
+        <v>1.028659514234919</v>
       </c>
       <c r="K7">
-        <v>1.02594052008814</v>
+        <v>1.030767425398277</v>
       </c>
       <c r="L7">
-        <v>1.030207932361175</v>
+        <v>1.052726024346854</v>
       </c>
       <c r="M7">
-        <v>1.035355353995483</v>
+        <v>1.057019266813165</v>
       </c>
       <c r="N7">
-        <v>1.019892335133803</v>
+        <v>1.030120328734028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9934709628832931</v>
+        <v>1.022889471354928</v>
       </c>
       <c r="D8">
-        <v>1.012222701359272</v>
+        <v>1.027433121344162</v>
       </c>
       <c r="E8">
-        <v>1.014309573829766</v>
+        <v>1.048870625707457</v>
       </c>
       <c r="F8">
-        <v>1.019347997612421</v>
+        <v>1.053147109784616</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040442173038867</v>
+        <v>1.030671764961139</v>
       </c>
       <c r="J8">
-        <v>1.015270268863028</v>
+        <v>1.027952392127775</v>
       </c>
       <c r="K8">
-        <v>1.023239615085284</v>
+        <v>1.03018879488374</v>
       </c>
       <c r="L8">
-        <v>1.025299139658663</v>
+        <v>1.051566655598448</v>
       </c>
       <c r="M8">
-        <v>1.030272113730712</v>
+        <v>1.055831556073411</v>
       </c>
       <c r="N8">
-        <v>1.016712069097941</v>
+        <v>1.029412202432384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9832341173872085</v>
+        <v>1.020808285731431</v>
       </c>
       <c r="D9">
-        <v>1.005214797370617</v>
+        <v>1.02596917614774</v>
       </c>
       <c r="E9">
-        <v>1.003224033858999</v>
+        <v>1.046398315084925</v>
       </c>
       <c r="F9">
-        <v>1.00794009504691</v>
+        <v>1.050625463141739</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038197740499473</v>
+        <v>1.030360728313628</v>
       </c>
       <c r="J9">
-        <v>1.009393137938892</v>
+        <v>1.026704375147539</v>
       </c>
       <c r="K9">
-        <v>1.018223830944501</v>
+        <v>1.029164826763844</v>
       </c>
       <c r="L9">
-        <v>1.016265019038403</v>
+        <v>1.049527341204195</v>
       </c>
       <c r="M9">
-        <v>1.020905650017991</v>
+        <v>1.053741057466194</v>
       </c>
       <c r="N9">
-        <v>1.010826591973776</v>
+        <v>1.028162413124886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9760722726751181</v>
+        <v>1.019422701921524</v>
       </c>
       <c r="D10">
-        <v>1.000329757395591</v>
+        <v>1.024993926386973</v>
       </c>
       <c r="E10">
-        <v>0.9955045494436154</v>
+        <v>1.044755674271672</v>
       </c>
       <c r="F10">
-        <v>0.999987212052297</v>
+        <v>1.048949081025129</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036574152068501</v>
+        <v>1.030146792709158</v>
       </c>
       <c r="J10">
-        <v>1.005268486431847</v>
+        <v>1.025871086615385</v>
       </c>
       <c r="K10">
-        <v>1.014693060522211</v>
+        <v>1.028479314820933</v>
       </c>
       <c r="L10">
-        <v>1.009955447798489</v>
+        <v>1.04817027878975</v>
       </c>
       <c r="M10">
-        <v>1.014356697393319</v>
+        <v>1.05234904319975</v>
       </c>
       <c r="N10">
-        <v>1.006696082988487</v>
+        <v>1.027327941227437</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9728831464064726</v>
+        <v>1.018823184751063</v>
       </c>
       <c r="D11">
-        <v>0.9981596487396368</v>
+        <v>1.024571819089003</v>
       </c>
       <c r="E11">
-        <v>0.9920754701824476</v>
+        <v>1.04404571963154</v>
       </c>
       <c r="F11">
-        <v>0.9964523782981451</v>
+        <v>1.04822431510098</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035839120728003</v>
+        <v>1.030052602190634</v>
       </c>
       <c r="J11">
-        <v>1.003429208988522</v>
+        <v>1.025509971332724</v>
       </c>
       <c r="K11">
-        <v>1.013116355043454</v>
+        <v>1.028181812360894</v>
       </c>
       <c r="L11">
-        <v>1.007148395032738</v>
+        <v>1.047583250410113</v>
       </c>
       <c r="M11">
-        <v>1.01144150911922</v>
+        <v>1.051746684903279</v>
       </c>
       <c r="N11">
-        <v>1.004854193560224</v>
+        <v>1.026966313119655</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9716846077103465</v>
+        <v>1.018600565833014</v>
       </c>
       <c r="D12">
-        <v>0.9973449390326812</v>
+        <v>1.024415058409073</v>
       </c>
       <c r="E12">
-        <v>0.9907879898344282</v>
+        <v>1.043782209608019</v>
       </c>
       <c r="F12">
-        <v>0.9951248829913134</v>
+        <v>1.047955273360202</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035561122056192</v>
+        <v>1.030017382483674</v>
       </c>
       <c r="J12">
-        <v>1.002737622821006</v>
+        <v>1.025375793424698</v>
       </c>
       <c r="K12">
-        <v>1.01252318321177</v>
+        <v>1.028071206762153</v>
       </c>
       <c r="L12">
-        <v>1.006093831391837</v>
+        <v>1.04736529080603</v>
       </c>
       <c r="M12">
-        <v>1.010346082366937</v>
+        <v>1.051523001807268</v>
       </c>
       <c r="N12">
-        <v>1.004161625261025</v>
+        <v>1.026831944663609</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9719423421946183</v>
+        <v>1.018648315234837</v>
       </c>
       <c r="D13">
-        <v>0.9975200943819138</v>
+        <v>1.024448682783283</v>
       </c>
       <c r="E13">
-        <v>0.9910647947780346</v>
+        <v>1.043838724401457</v>
       </c>
       <c r="F13">
-        <v>0.9954103049264662</v>
+        <v>1.048012976088973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035620981663435</v>
+        <v>1.030024947773632</v>
       </c>
       <c r="J13">
-        <v>1.002886356972212</v>
+        <v>1.025404577001644</v>
       </c>
       <c r="K13">
-        <v>1.012650766006113</v>
+        <v>1.028094936546363</v>
       </c>
       <c r="L13">
-        <v>1.006320588055901</v>
+        <v>1.047412039852105</v>
       </c>
       <c r="M13">
-        <v>1.010581636231564</v>
+        <v>1.051570979885111</v>
       </c>
       <c r="N13">
-        <v>1.004310570631786</v>
+        <v>1.026860769116535</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.972784363935539</v>
+        <v>1.018804781600332</v>
       </c>
       <c r="D14">
-        <v>0.9980924830962781</v>
+        <v>1.024558860607542</v>
       </c>
       <c r="E14">
-        <v>0.9919693321772136</v>
+        <v>1.044023933753777</v>
       </c>
       <c r="F14">
-        <v>0.9963429477680134</v>
+        <v>1.048202072584368</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035816243770919</v>
+        <v>1.030049695672258</v>
       </c>
       <c r="J14">
-        <v>1.003372215915665</v>
+        <v>1.025498881029862</v>
       </c>
       <c r="K14">
-        <v>1.013067478489205</v>
+        <v>1.028172671701052</v>
       </c>
       <c r="L14">
-        <v>1.007061471054244</v>
+        <v>1.047565231985671</v>
       </c>
       <c r="M14">
-        <v>1.011351221738308</v>
+        <v>1.051728193969906</v>
       </c>
       <c r="N14">
-        <v>1.004797119550667</v>
+        <v>1.02695520706729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9733012892803181</v>
+        <v>1.018901194789192</v>
       </c>
       <c r="D15">
-        <v>0.9984439942702694</v>
+        <v>1.024626748654204</v>
       </c>
       <c r="E15">
-        <v>0.9925247991169875</v>
+        <v>1.044138073697786</v>
       </c>
       <c r="F15">
-        <v>0.996915633385831</v>
+        <v>1.048318603532636</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035935886740729</v>
+        <v>1.030064912788075</v>
       </c>
       <c r="J15">
-        <v>1.003670444806884</v>
+        <v>1.025556979099846</v>
       </c>
       <c r="K15">
-        <v>1.013323223189043</v>
+        <v>1.028220553679823</v>
       </c>
       <c r="L15">
-        <v>1.00751635695609</v>
+        <v>1.047659630505094</v>
       </c>
       <c r="M15">
-        <v>1.011823699145914</v>
+        <v>1.051825066669519</v>
       </c>
       <c r="N15">
-        <v>1.005095771961118</v>
+        <v>1.027013387643198</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9762820089254088</v>
+        <v>1.019462499452756</v>
       </c>
       <c r="D16">
-        <v>1.00047259165549</v>
+        <v>1.025021944216442</v>
       </c>
       <c r="E16">
-        <v>0.9957302391015492</v>
+        <v>1.044802819467313</v>
       </c>
       <c r="F16">
-        <v>1.000219819085116</v>
+        <v>1.048997204965795</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036622245371577</v>
+        <v>1.030153011101493</v>
       </c>
       <c r="J16">
-        <v>1.005389397867899</v>
+        <v>1.025895046485423</v>
       </c>
       <c r="K16">
-        <v>1.014796665881664</v>
+        <v>1.028499045014421</v>
       </c>
       <c r="L16">
-        <v>1.010140109883185</v>
+        <v>1.048209250368802</v>
       </c>
       <c r="M16">
-        <v>1.014548439686147</v>
+        <v>1.052389028063626</v>
       </c>
       <c r="N16">
-        <v>1.006817166132647</v>
+        <v>1.027351935123239</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9781276731860732</v>
+        <v>1.019814712073838</v>
       </c>
       <c r="D17">
-        <v>1.001730121566996</v>
+        <v>1.025269889728711</v>
       </c>
       <c r="E17">
-        <v>0.9977172417433557</v>
+        <v>1.04522015057319</v>
       </c>
       <c r="F17">
-        <v>1.002267487020026</v>
+        <v>1.049423173573586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037044096849744</v>
+        <v>1.030207856859085</v>
       </c>
       <c r="J17">
-        <v>1.006453119548325</v>
+        <v>1.026107028606692</v>
       </c>
       <c r="K17">
-        <v>1.015707883337055</v>
+        <v>1.028673556197827</v>
       </c>
       <c r="L17">
-        <v>1.011765414717227</v>
+        <v>1.048554170284824</v>
       </c>
       <c r="M17">
-        <v>1.016235875440435</v>
+        <v>1.052742891762289</v>
       </c>
       <c r="N17">
-        <v>1.007882398419869</v>
+        <v>1.027564218283435</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9791957794267615</v>
+        <v>1.020020195073096</v>
       </c>
       <c r="D18">
-        <v>1.002458352801228</v>
+        <v>1.025414529646607</v>
       </c>
       <c r="E18">
-        <v>0.9988679366276754</v>
+        <v>1.045463700043589</v>
       </c>
       <c r="F18">
-        <v>1.003453116306511</v>
+        <v>1.049671741747491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037287079344908</v>
+        <v>1.030239697396343</v>
       </c>
       <c r="J18">
-        <v>1.007068457951697</v>
+        <v>1.026230645590423</v>
       </c>
       <c r="K18">
-        <v>1.016234786369945</v>
+        <v>1.028775280790209</v>
       </c>
       <c r="L18">
-        <v>1.012706239613371</v>
+        <v>1.048755412997724</v>
       </c>
       <c r="M18">
-        <v>1.017212509489975</v>
+        <v>1.052949332359451</v>
       </c>
       <c r="N18">
-        <v>1.008498610674355</v>
+        <v>1.027688010817462</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9795585661914075</v>
+        <v>1.02009026678953</v>
       </c>
       <c r="D19">
-        <v>1.002705779371409</v>
+        <v>1.025463851046323</v>
       </c>
       <c r="E19">
-        <v>0.9992589102879834</v>
+        <v>1.04554676569654</v>
       </c>
       <c r="F19">
-        <v>1.003855926082314</v>
+        <v>1.049756515355276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03736941316693</v>
+        <v>1.03025052872891</v>
       </c>
       <c r="J19">
-        <v>1.007277416759734</v>
+        <v>1.026272790910683</v>
       </c>
       <c r="K19">
-        <v>1.016413676794276</v>
+        <v>1.028809955223655</v>
       </c>
       <c r="L19">
-        <v>1.013025835989582</v>
+        <v>1.048824041176582</v>
       </c>
       <c r="M19">
-        <v>1.017544243482691</v>
+        <v>1.053019729678359</v>
       </c>
       <c r="N19">
-        <v>1.008707866227867</v>
+        <v>1.027730215988911</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.977930528852417</v>
+        <v>1.019776918504017</v>
       </c>
       <c r="D20">
-        <v>1.001595747820216</v>
+        <v>1.02524328570216</v>
       </c>
       <c r="E20">
-        <v>0.9975049180665679</v>
+        <v>1.045175361724691</v>
       </c>
       <c r="F20">
-        <v>1.0020487013402</v>
+        <v>1.049377460009594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036999155545579</v>
+        <v>1.030201987946933</v>
       </c>
       <c r="J20">
-        <v>1.006339523834141</v>
+        <v>1.026084287883556</v>
       </c>
       <c r="K20">
-        <v>1.015610595841913</v>
+        <v>1.02865483949831</v>
       </c>
       <c r="L20">
-        <v>1.01159178282597</v>
+        <v>1.048517157767765</v>
       </c>
       <c r="M20">
-        <v>1.016055622209303</v>
+        <v>1.052704921613387</v>
       </c>
       <c r="N20">
-        <v>1.007768641386742</v>
+        <v>1.027541445265864</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9725368009102442</v>
+        <v>1.0187587042588</v>
       </c>
       <c r="D21">
-        <v>0.9979241705412716</v>
+        <v>1.024526415179301</v>
       </c>
       <c r="E21">
-        <v>0.9917033550000269</v>
+        <v>1.043969388725684</v>
       </c>
       <c r="F21">
-        <v>0.9960687147108165</v>
+        <v>1.048146383721223</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035758882687339</v>
+        <v>1.030042414465405</v>
       </c>
       <c r="J21">
-        <v>1.003229377645252</v>
+        <v>1.025471112041257</v>
       </c>
       <c r="K21">
-        <v>1.012944977157869</v>
+        <v>1.02814978338698</v>
       </c>
       <c r="L21">
-        <v>1.006843633293545</v>
+        <v>1.04752011826362</v>
       </c>
       <c r="M21">
-        <v>1.011124951234887</v>
+        <v>1.051681896690894</v>
       </c>
       <c r="N21">
-        <v>1.004654078433526</v>
+        <v>1.026927398643535</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9690644070794603</v>
+        <v>1.018118909033923</v>
       </c>
       <c r="D22">
-        <v>0.9955655316351379</v>
+        <v>1.024075857333829</v>
       </c>
       <c r="E22">
-        <v>0.9879756026246083</v>
+        <v>1.043212295727385</v>
       </c>
       <c r="F22">
-        <v>0.9922245237452976</v>
+        <v>1.04737333289896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034950197051395</v>
+        <v>1.029940735554707</v>
       </c>
       <c r="J22">
-        <v>1.001225110101795</v>
+        <v>1.025085332132055</v>
       </c>
       <c r="K22">
-        <v>1.011225351054761</v>
+        <v>1.027831656799626</v>
       </c>
       <c r="L22">
-        <v>1.003789088849305</v>
+        <v>1.046893754373235</v>
       </c>
       <c r="M22">
-        <v>1.00795160420956</v>
+        <v>1.05103902539047</v>
       </c>
       <c r="N22">
-        <v>1.002646964600264</v>
+        <v>1.026541070882614</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9709131392124728</v>
+        <v>1.018458038710893</v>
       </c>
       <c r="D23">
-        <v>0.9968207849968211</v>
+        <v>1.024314690273441</v>
       </c>
       <c r="E23">
-        <v>0.9899596182087367</v>
+        <v>1.043613535874991</v>
       </c>
       <c r="F23">
-        <v>0.9942706790800061</v>
+        <v>1.047783049100162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035381692574603</v>
+        <v>1.029994765157523</v>
       </c>
       <c r="J23">
-        <v>1.002292373852002</v>
+        <v>1.02528986496151</v>
       </c>
       <c r="K23">
-        <v>1.012141208345044</v>
+        <v>1.028000356184117</v>
       </c>
       <c r="L23">
-        <v>1.00541514403544</v>
+        <v>1.047225752812515</v>
       </c>
       <c r="M23">
-        <v>1.009641030483652</v>
+        <v>1.051379790739304</v>
       </c>
       <c r="N23">
-        <v>1.003715743987414</v>
+        <v>1.026745894172147</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9780196359147586</v>
+        <v>1.019793995657557</v>
       </c>
       <c r="D24">
-        <v>1.001656481773453</v>
+        <v>1.02525530686269</v>
       </c>
       <c r="E24">
-        <v>0.997600883559447</v>
+        <v>1.045195599484051</v>
       </c>
       <c r="F24">
-        <v>1.002147588124627</v>
+        <v>1.049398115668042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037019472081076</v>
+        <v>1.030204640319426</v>
       </c>
       <c r="J24">
-        <v>1.0063908686182</v>
+        <v>1.026094563525916</v>
       </c>
       <c r="K24">
-        <v>1.015654570048813</v>
+        <v>1.028663296969562</v>
       </c>
       <c r="L24">
-        <v>1.011670261770179</v>
+        <v>1.048533881955623</v>
       </c>
       <c r="M24">
-        <v>1.016137094381463</v>
+        <v>1.052722078572176</v>
       </c>
       <c r="N24">
-        <v>1.007820059086284</v>
+        <v>1.027551735500814</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9859374932250762</v>
+        <v>1.021345996111537</v>
       </c>
       <c r="D25">
-        <v>1.007062699258077</v>
+        <v>1.026347521338687</v>
       </c>
       <c r="E25">
-        <v>1.006145244854074</v>
+        <v>1.047036488105084</v>
       </c>
       <c r="F25">
-        <v>1.01094780662778</v>
+        <v>1.051276540928386</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038799842326556</v>
+        <v>1.03044230030454</v>
       </c>
       <c r="J25">
-        <v>1.010947565086739</v>
+        <v>1.027027246400553</v>
       </c>
       <c r="K25">
-        <v>1.019552356425034</v>
+        <v>1.029430056430717</v>
       </c>
       <c r="L25">
-        <v>1.018648906992945</v>
+        <v>1.050054118025146</v>
       </c>
       <c r="M25">
-        <v>1.023378516352793</v>
+        <v>1.054281213197449</v>
       </c>
       <c r="N25">
-        <v>1.012383226586469</v>
+        <v>1.028485742892113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022585203763145</v>
+        <v>0.9920119484772369</v>
       </c>
       <c r="D2">
-        <v>1.027219167439481</v>
+        <v>1.011222213914935</v>
       </c>
       <c r="E2">
-        <v>1.048508784654992</v>
+        <v>1.012725476373896</v>
       </c>
       <c r="F2">
-        <v>1.052778160187862</v>
+        <v>1.017718853026077</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030627091185019</v>
+        <v>1.040128471788382</v>
       </c>
       <c r="J2">
-        <v>1.027770213808853</v>
+        <v>1.01443423438514</v>
       </c>
       <c r="K2">
-        <v>1.030039534561403</v>
+        <v>1.022527388445875</v>
       </c>
       <c r="L2">
-        <v>1.051268432637377</v>
+        <v>1.024010326799232</v>
       </c>
       <c r="M2">
-        <v>1.05552595220033</v>
+        <v>1.028936734171807</v>
       </c>
       <c r="N2">
-        <v>1.029229765399353</v>
+        <v>1.015874847355194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023485738831831</v>
+        <v>0.9962938387866372</v>
       </c>
       <c r="D3">
-        <v>1.02785232462888</v>
+        <v>1.014159888105054</v>
       </c>
       <c r="E3">
-        <v>1.049580120962158</v>
+        <v>1.017378712033458</v>
       </c>
       <c r="F3">
-        <v>1.053870428705247</v>
+        <v>1.022503365569041</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030758492797049</v>
+        <v>1.041042651981338</v>
       </c>
       <c r="J3">
-        <v>1.028309115442415</v>
+        <v>1.01688604993563</v>
       </c>
       <c r="K3">
-        <v>1.030480842930338</v>
+        <v>1.024614740459242</v>
       </c>
       <c r="L3">
-        <v>1.052151157720566</v>
+        <v>1.027793954938691</v>
       </c>
       <c r="M3">
-        <v>1.056430417696365</v>
+        <v>1.032856185882336</v>
       </c>
       <c r="N3">
-        <v>1.029769432335048</v>
+        <v>1.018330144764999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024068792292468</v>
+        <v>0.9990082796694356</v>
       </c>
       <c r="D4">
-        <v>1.028262134072192</v>
+        <v>1.016024388420368</v>
       </c>
       <c r="E4">
-        <v>1.050274417906803</v>
+        <v>1.020335516186978</v>
       </c>
       <c r="F4">
-        <v>1.05457810382439</v>
+        <v>1.025541875542481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030842232359159</v>
+        <v>1.041611560297982</v>
       </c>
       <c r="J4">
-        <v>1.028657557496632</v>
+        <v>1.018437387819721</v>
       </c>
       <c r="K4">
-        <v>1.030765825835823</v>
+        <v>1.025933184925231</v>
       </c>
       <c r="L4">
-        <v>1.052722812070963</v>
+        <v>1.030194551591653</v>
       </c>
       <c r="M4">
-        <v>1.057015976797008</v>
+        <v>1.035341504336717</v>
       </c>
       <c r="N4">
-        <v>1.030118369216949</v>
+        <v>1.019883685726826</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024313990070817</v>
+        <v>1.000136433824704</v>
       </c>
       <c r="D5">
-        <v>1.028434443945593</v>
+        <v>1.016799769255004</v>
       </c>
       <c r="E5">
-        <v>1.050566556061499</v>
+        <v>1.021566082372654</v>
       </c>
       <c r="F5">
-        <v>1.054875826267003</v>
+        <v>1.02680603286707</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030877128080782</v>
+        <v>1.04184541672681</v>
       </c>
       <c r="J5">
-        <v>1.028803978599067</v>
+        <v>1.019081403856846</v>
       </c>
       <c r="K5">
-        <v>1.030885494486349</v>
+        <v>1.026479952170011</v>
       </c>
       <c r="L5">
-        <v>1.052963248037031</v>
+        <v>1.031192754399906</v>
       </c>
       <c r="M5">
-        <v>1.057262219255952</v>
+        <v>1.036374581203496</v>
       </c>
       <c r="N5">
-        <v>1.030264998254143</v>
+        <v>1.020528616340593</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024355164642835</v>
+        <v>1.000325106810537</v>
       </c>
       <c r="D6">
-        <v>1.028463377014311</v>
+        <v>1.016929470410252</v>
       </c>
       <c r="E6">
-        <v>1.050615622320971</v>
+        <v>1.021771982138161</v>
       </c>
       <c r="F6">
-        <v>1.05492582781144</v>
+        <v>1.027017528774075</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030882969127225</v>
+        <v>1.041884373650576</v>
       </c>
       <c r="J6">
-        <v>1.028828559571173</v>
+        <v>1.019189065105552</v>
       </c>
       <c r="K6">
-        <v>1.030905579249554</v>
+        <v>1.026571322359338</v>
       </c>
       <c r="L6">
-        <v>1.053003624873039</v>
+        <v>1.031359722871429</v>
       </c>
       <c r="M6">
-        <v>1.057303568733977</v>
+        <v>1.036547362028698</v>
       </c>
       <c r="N6">
-        <v>1.03028961413405</v>
+        <v>1.020636430480621</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024072068315796</v>
+        <v>0.9990234045903081</v>
       </c>
       <c r="D7">
-        <v>1.028264436384827</v>
+        <v>1.01603478199372</v>
       </c>
       <c r="E7">
-        <v>1.050278320467079</v>
+        <v>1.020352007457069</v>
       </c>
       <c r="F7">
-        <v>1.054582081159049</v>
+        <v>1.025558818614893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030842699849889</v>
+        <v>1.04161470583915</v>
       </c>
       <c r="J7">
-        <v>1.028659514234919</v>
+        <v>1.018446024960968</v>
       </c>
       <c r="K7">
-        <v>1.030767425398277</v>
+        <v>1.025940520088141</v>
       </c>
       <c r="L7">
-        <v>1.052726024346854</v>
+        <v>1.030207932361176</v>
       </c>
       <c r="M7">
-        <v>1.057019266813165</v>
+        <v>1.035355353995484</v>
       </c>
       <c r="N7">
-        <v>1.030120328734028</v>
+        <v>1.019892335133804</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022889471354928</v>
+        <v>0.9934709628832933</v>
       </c>
       <c r="D8">
-        <v>1.027433121344162</v>
+        <v>1.012222701359272</v>
       </c>
       <c r="E8">
-        <v>1.048870625707457</v>
+        <v>1.014309573829766</v>
       </c>
       <c r="F8">
-        <v>1.053147109784616</v>
+        <v>1.019347997612421</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030671764961139</v>
+        <v>1.040442173038867</v>
       </c>
       <c r="J8">
-        <v>1.027952392127775</v>
+        <v>1.015270268863028</v>
       </c>
       <c r="K8">
-        <v>1.03018879488374</v>
+        <v>1.023239615085284</v>
       </c>
       <c r="L8">
-        <v>1.051566655598448</v>
+        <v>1.025299139658663</v>
       </c>
       <c r="M8">
-        <v>1.055831556073411</v>
+        <v>1.030272113730712</v>
       </c>
       <c r="N8">
-        <v>1.029412202432384</v>
+        <v>1.016712069097941</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020808285731431</v>
+        <v>0.9832341173872082</v>
       </c>
       <c r="D9">
-        <v>1.02596917614774</v>
+        <v>1.005214797370616</v>
       </c>
       <c r="E9">
-        <v>1.046398315084925</v>
+        <v>1.003224033858999</v>
       </c>
       <c r="F9">
-        <v>1.050625463141739</v>
+        <v>1.00794009504691</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030360728313628</v>
+        <v>1.038197740499473</v>
       </c>
       <c r="J9">
-        <v>1.026704375147539</v>
+        <v>1.009393137938891</v>
       </c>
       <c r="K9">
-        <v>1.029164826763844</v>
+        <v>1.018223830944501</v>
       </c>
       <c r="L9">
-        <v>1.049527341204195</v>
+        <v>1.016265019038404</v>
       </c>
       <c r="M9">
-        <v>1.053741057466194</v>
+        <v>1.020905650017992</v>
       </c>
       <c r="N9">
-        <v>1.028162413124886</v>
+        <v>1.010826591973776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019422701921524</v>
+        <v>0.9760722726751181</v>
       </c>
       <c r="D10">
-        <v>1.024993926386973</v>
+        <v>1.000329757395591</v>
       </c>
       <c r="E10">
-        <v>1.044755674271672</v>
+        <v>0.9955045494436161</v>
       </c>
       <c r="F10">
-        <v>1.048949081025129</v>
+        <v>0.9999872120522977</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030146792709158</v>
+        <v>1.036574152068501</v>
       </c>
       <c r="J10">
-        <v>1.025871086615385</v>
+        <v>1.005268486431847</v>
       </c>
       <c r="K10">
-        <v>1.028479314820933</v>
+        <v>1.014693060522211</v>
       </c>
       <c r="L10">
-        <v>1.04817027878975</v>
+        <v>1.00995544779849</v>
       </c>
       <c r="M10">
-        <v>1.05234904319975</v>
+        <v>1.014356697393319</v>
       </c>
       <c r="N10">
-        <v>1.027327941227437</v>
+        <v>1.006696082988487</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018823184751063</v>
+        <v>0.9728831464064721</v>
       </c>
       <c r="D11">
-        <v>1.024571819089003</v>
+        <v>0.9981596487396363</v>
       </c>
       <c r="E11">
-        <v>1.04404571963154</v>
+        <v>0.9920754701824472</v>
       </c>
       <c r="F11">
-        <v>1.04822431510098</v>
+        <v>0.9964523782981449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030052602190634</v>
+        <v>1.035839120728003</v>
       </c>
       <c r="J11">
-        <v>1.025509971332724</v>
+        <v>1.003429208988522</v>
       </c>
       <c r="K11">
-        <v>1.028181812360894</v>
+        <v>1.013116355043454</v>
       </c>
       <c r="L11">
-        <v>1.047583250410113</v>
+        <v>1.007148395032738</v>
       </c>
       <c r="M11">
-        <v>1.051746684903279</v>
+        <v>1.01144150911922</v>
       </c>
       <c r="N11">
-        <v>1.026966313119655</v>
+        <v>1.004854193560224</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018600565833014</v>
+        <v>0.9716846077103469</v>
       </c>
       <c r="D12">
-        <v>1.024415058409073</v>
+        <v>0.9973449390326815</v>
       </c>
       <c r="E12">
-        <v>1.043782209608019</v>
+        <v>0.9907879898344288</v>
       </c>
       <c r="F12">
-        <v>1.047955273360202</v>
+        <v>0.9951248829913141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030017382483674</v>
+        <v>1.035561122056192</v>
       </c>
       <c r="J12">
-        <v>1.025375793424698</v>
+        <v>1.002737622821006</v>
       </c>
       <c r="K12">
-        <v>1.028071206762153</v>
+        <v>1.01252318321177</v>
       </c>
       <c r="L12">
-        <v>1.04736529080603</v>
+        <v>1.006093831391838</v>
       </c>
       <c r="M12">
-        <v>1.051523001807268</v>
+        <v>1.010346082366938</v>
       </c>
       <c r="N12">
-        <v>1.026831944663609</v>
+        <v>1.004161625261025</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018648315234837</v>
+        <v>0.9719423421946177</v>
       </c>
       <c r="D13">
-        <v>1.024448682783283</v>
+        <v>0.9975200943819135</v>
       </c>
       <c r="E13">
-        <v>1.043838724401457</v>
+        <v>0.9910647947780347</v>
       </c>
       <c r="F13">
-        <v>1.048012976088973</v>
+        <v>0.9954103049264658</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030024947773632</v>
+        <v>1.035620981663435</v>
       </c>
       <c r="J13">
-        <v>1.025404577001644</v>
+        <v>1.002886356972212</v>
       </c>
       <c r="K13">
-        <v>1.028094936546363</v>
+        <v>1.012650766006113</v>
       </c>
       <c r="L13">
-        <v>1.047412039852105</v>
+        <v>1.006320588055901</v>
       </c>
       <c r="M13">
-        <v>1.051570979885111</v>
+        <v>1.010581636231564</v>
       </c>
       <c r="N13">
-        <v>1.026860769116535</v>
+        <v>1.004310570631785</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018804781600332</v>
+        <v>0.9727843639355389</v>
       </c>
       <c r="D14">
-        <v>1.024558860607542</v>
+        <v>0.9980924830962777</v>
       </c>
       <c r="E14">
-        <v>1.044023933753777</v>
+        <v>0.9919693321772135</v>
       </c>
       <c r="F14">
-        <v>1.048202072584368</v>
+        <v>0.9963429477680136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030049695672258</v>
+        <v>1.035816243770919</v>
       </c>
       <c r="J14">
-        <v>1.025498881029862</v>
+        <v>1.003372215915665</v>
       </c>
       <c r="K14">
-        <v>1.028172671701052</v>
+        <v>1.013067478489205</v>
       </c>
       <c r="L14">
-        <v>1.047565231985671</v>
+        <v>1.007061471054244</v>
       </c>
       <c r="M14">
-        <v>1.051728193969906</v>
+        <v>1.011351221738308</v>
       </c>
       <c r="N14">
-        <v>1.02695520706729</v>
+        <v>1.004797119550667</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018901194789192</v>
+        <v>0.9733012892803181</v>
       </c>
       <c r="D15">
-        <v>1.024626748654204</v>
+        <v>0.9984439942702694</v>
       </c>
       <c r="E15">
-        <v>1.044138073697786</v>
+        <v>0.9925247991169878</v>
       </c>
       <c r="F15">
-        <v>1.048318603532636</v>
+        <v>0.9969156333858312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030064912788075</v>
+        <v>1.035935886740729</v>
       </c>
       <c r="J15">
-        <v>1.025556979099846</v>
+        <v>1.003670444806883</v>
       </c>
       <c r="K15">
-        <v>1.028220553679823</v>
+        <v>1.013323223189043</v>
       </c>
       <c r="L15">
-        <v>1.047659630505094</v>
+        <v>1.00751635695609</v>
       </c>
       <c r="M15">
-        <v>1.051825066669519</v>
+        <v>1.011823699145914</v>
       </c>
       <c r="N15">
-        <v>1.027013387643198</v>
+        <v>1.005095771961118</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019462499452756</v>
+        <v>0.976282008925409</v>
       </c>
       <c r="D16">
-        <v>1.025021944216442</v>
+        <v>1.00047259165549</v>
       </c>
       <c r="E16">
-        <v>1.044802819467313</v>
+        <v>0.995730239101549</v>
       </c>
       <c r="F16">
-        <v>1.048997204965795</v>
+        <v>1.000219819085116</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030153011101493</v>
+        <v>1.036622245371577</v>
       </c>
       <c r="J16">
-        <v>1.025895046485423</v>
+        <v>1.005389397867899</v>
       </c>
       <c r="K16">
-        <v>1.028499045014421</v>
+        <v>1.014796665881664</v>
       </c>
       <c r="L16">
-        <v>1.048209250368802</v>
+        <v>1.010140109883185</v>
       </c>
       <c r="M16">
-        <v>1.052389028063626</v>
+        <v>1.014548439686147</v>
       </c>
       <c r="N16">
-        <v>1.027351935123239</v>
+        <v>1.006817166132647</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019814712073838</v>
+        <v>0.9781276731860732</v>
       </c>
       <c r="D17">
-        <v>1.025269889728711</v>
+        <v>1.001730121566996</v>
       </c>
       <c r="E17">
-        <v>1.04522015057319</v>
+        <v>0.997717241743356</v>
       </c>
       <c r="F17">
-        <v>1.049423173573586</v>
+        <v>1.002267487020026</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030207856859085</v>
+        <v>1.037044096849744</v>
       </c>
       <c r="J17">
-        <v>1.026107028606692</v>
+        <v>1.006453119548325</v>
       </c>
       <c r="K17">
-        <v>1.028673556197827</v>
+        <v>1.015707883337054</v>
       </c>
       <c r="L17">
-        <v>1.048554170284824</v>
+        <v>1.011765414717227</v>
       </c>
       <c r="M17">
-        <v>1.052742891762289</v>
+        <v>1.016235875440435</v>
       </c>
       <c r="N17">
-        <v>1.027564218283435</v>
+        <v>1.007882398419869</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020020195073096</v>
+        <v>0.9791957794267618</v>
       </c>
       <c r="D18">
-        <v>1.025414529646607</v>
+        <v>1.002458352801229</v>
       </c>
       <c r="E18">
-        <v>1.045463700043589</v>
+        <v>0.9988679366276759</v>
       </c>
       <c r="F18">
-        <v>1.049671741747491</v>
+        <v>1.003453116306511</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030239697396343</v>
+        <v>1.037287079344908</v>
       </c>
       <c r="J18">
-        <v>1.026230645590423</v>
+        <v>1.007068457951697</v>
       </c>
       <c r="K18">
-        <v>1.028775280790209</v>
+        <v>1.016234786369945</v>
       </c>
       <c r="L18">
-        <v>1.048755412997724</v>
+        <v>1.012706239613372</v>
       </c>
       <c r="M18">
-        <v>1.052949332359451</v>
+        <v>1.017212509489976</v>
       </c>
       <c r="N18">
-        <v>1.027688010817462</v>
+        <v>1.008498610674355</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02009026678953</v>
+        <v>0.9795585661914082</v>
       </c>
       <c r="D19">
-        <v>1.025463851046323</v>
+        <v>1.00270577937141</v>
       </c>
       <c r="E19">
-        <v>1.04554676569654</v>
+        <v>0.9992589102879837</v>
       </c>
       <c r="F19">
-        <v>1.049756515355276</v>
+        <v>1.003855926082315</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03025052872891</v>
+        <v>1.03736941316693</v>
       </c>
       <c r="J19">
-        <v>1.026272790910683</v>
+        <v>1.007277416759734</v>
       </c>
       <c r="K19">
-        <v>1.028809955223655</v>
+        <v>1.016413676794276</v>
       </c>
       <c r="L19">
-        <v>1.048824041176582</v>
+        <v>1.013025835989583</v>
       </c>
       <c r="M19">
-        <v>1.053019729678359</v>
+        <v>1.017544243482691</v>
       </c>
       <c r="N19">
-        <v>1.027730215988911</v>
+        <v>1.008707866227868</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019776918504017</v>
+        <v>0.9779305288524169</v>
       </c>
       <c r="D20">
-        <v>1.02524328570216</v>
+        <v>1.001595747820215</v>
       </c>
       <c r="E20">
-        <v>1.045175361724691</v>
+        <v>0.9975049180665678</v>
       </c>
       <c r="F20">
-        <v>1.049377460009594</v>
+        <v>1.0020487013402</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030201987946933</v>
+        <v>1.036999155545579</v>
       </c>
       <c r="J20">
-        <v>1.026084287883556</v>
+        <v>1.006339523834141</v>
       </c>
       <c r="K20">
-        <v>1.02865483949831</v>
+        <v>1.015610595841913</v>
       </c>
       <c r="L20">
-        <v>1.048517157767765</v>
+        <v>1.01159178282597</v>
       </c>
       <c r="M20">
-        <v>1.052704921613387</v>
+        <v>1.016055622209303</v>
       </c>
       <c r="N20">
-        <v>1.027541445265864</v>
+        <v>1.007768641386742</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0187587042588</v>
+        <v>0.9725368009102445</v>
       </c>
       <c r="D21">
-        <v>1.024526415179301</v>
+        <v>0.9979241705412721</v>
       </c>
       <c r="E21">
-        <v>1.043969388725684</v>
+        <v>0.9917033550000272</v>
       </c>
       <c r="F21">
-        <v>1.048146383721223</v>
+        <v>0.9960687147108167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030042414465405</v>
+        <v>1.035758882687339</v>
       </c>
       <c r="J21">
-        <v>1.025471112041257</v>
+        <v>1.003229377645252</v>
       </c>
       <c r="K21">
-        <v>1.02814978338698</v>
+        <v>1.012944977157869</v>
       </c>
       <c r="L21">
-        <v>1.04752011826362</v>
+        <v>1.006843633293545</v>
       </c>
       <c r="M21">
-        <v>1.051681896690894</v>
+        <v>1.011124951234888</v>
       </c>
       <c r="N21">
-        <v>1.026927398643535</v>
+        <v>1.004654078433526</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018118909033923</v>
+        <v>0.9690644070794602</v>
       </c>
       <c r="D22">
-        <v>1.024075857333829</v>
+        <v>0.9955655316351377</v>
       </c>
       <c r="E22">
-        <v>1.043212295727385</v>
+        <v>0.9879756026246084</v>
       </c>
       <c r="F22">
-        <v>1.04737333289896</v>
+        <v>0.9922245237452976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029940735554707</v>
+        <v>1.034950197051395</v>
       </c>
       <c r="J22">
-        <v>1.025085332132055</v>
+        <v>1.001225110101795</v>
       </c>
       <c r="K22">
-        <v>1.027831656799626</v>
+        <v>1.011225351054761</v>
       </c>
       <c r="L22">
-        <v>1.046893754373235</v>
+        <v>1.003789088849305</v>
       </c>
       <c r="M22">
-        <v>1.05103902539047</v>
+        <v>1.00795160420956</v>
       </c>
       <c r="N22">
-        <v>1.026541070882614</v>
+        <v>1.002646964600264</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018458038710893</v>
+        <v>0.970913139212473</v>
       </c>
       <c r="D23">
-        <v>1.024314690273441</v>
+        <v>0.9968207849968214</v>
       </c>
       <c r="E23">
-        <v>1.043613535874991</v>
+        <v>0.9899596182087376</v>
       </c>
       <c r="F23">
-        <v>1.047783049100162</v>
+        <v>0.9942706790800071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029994765157523</v>
+        <v>1.035381692574603</v>
       </c>
       <c r="J23">
-        <v>1.02528986496151</v>
+        <v>1.002292373852002</v>
       </c>
       <c r="K23">
-        <v>1.028000356184117</v>
+        <v>1.012141208345044</v>
       </c>
       <c r="L23">
-        <v>1.047225752812515</v>
+        <v>1.00541514403544</v>
       </c>
       <c r="M23">
-        <v>1.051379790739304</v>
+        <v>1.009641030483653</v>
       </c>
       <c r="N23">
-        <v>1.026745894172147</v>
+        <v>1.003715743987414</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019793995657557</v>
+        <v>0.9780196359147587</v>
       </c>
       <c r="D24">
-        <v>1.02525530686269</v>
+        <v>1.001656481773453</v>
       </c>
       <c r="E24">
-        <v>1.045195599484051</v>
+        <v>0.9976008835594469</v>
       </c>
       <c r="F24">
-        <v>1.049398115668042</v>
+        <v>1.002147588124627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030204640319426</v>
+        <v>1.037019472081076</v>
       </c>
       <c r="J24">
-        <v>1.026094563525916</v>
+        <v>1.006390868618201</v>
       </c>
       <c r="K24">
-        <v>1.028663296969562</v>
+        <v>1.015654570048814</v>
       </c>
       <c r="L24">
-        <v>1.048533881955623</v>
+        <v>1.011670261770179</v>
       </c>
       <c r="M24">
-        <v>1.052722078572176</v>
+        <v>1.016137094381463</v>
       </c>
       <c r="N24">
-        <v>1.027551735500814</v>
+        <v>1.007820059086285</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021345996111537</v>
+        <v>0.9859374932250765</v>
       </c>
       <c r="D25">
-        <v>1.026347521338687</v>
+        <v>1.007062699258078</v>
       </c>
       <c r="E25">
-        <v>1.047036488105084</v>
+        <v>1.006145244854075</v>
       </c>
       <c r="F25">
-        <v>1.051276540928386</v>
+        <v>1.01094780662778</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03044230030454</v>
+        <v>1.038799842326556</v>
       </c>
       <c r="J25">
-        <v>1.027027246400553</v>
+        <v>1.010947565086739</v>
       </c>
       <c r="K25">
-        <v>1.029430056430717</v>
+        <v>1.019552356425035</v>
       </c>
       <c r="L25">
-        <v>1.050054118025146</v>
+        <v>1.018648906992945</v>
       </c>
       <c r="M25">
-        <v>1.054281213197449</v>
+        <v>1.023378516352793</v>
       </c>
       <c r="N25">
-        <v>1.028485742892113</v>
+        <v>1.012383226586469</v>
       </c>
     </row>
   </sheetData>
